--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD569EF-A60D-4129-BDE9-FBAEB829E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED696AE5-F241-4EE5-AB21-6B83EA9EFC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49650" yWindow="105" windowWidth="29040" windowHeight="20775" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="18825" yWindow="0" windowWidth="21570" windowHeight="20880" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
   <si>
     <t>Price</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="H1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>173</v>
+        <v>185.34</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
@@ -1306,11 +1311,9 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>12696</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>13094.333333333334</v>
+      </c>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H4" s="4"/>
@@ -1319,7 +1322,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>2196408</v>
+        <v>2426903.7400000002</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -1330,9 +1333,7 @@
       <c r="L5" s="3">
         <v>150842</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
@@ -1341,9 +1342,7 @@
       <c r="L6" s="3">
         <v>13781</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
@@ -1351,7 +1350,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>2059347</v>
+        <v>2289842.7400000002</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
@@ -1803,10 +1802,10 @@
   <dimension ref="A1:DA104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomRight" activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1815,10 +1814,13 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="17" width="9.140625" style="2"/>
     <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.140625" style="2"/>
+    <col min="19" max="25" width="9.140625" style="2"/>
+    <col min="26" max="26" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9.140625" customWidth="1"/>
     <col min="47" max="48" width="9.28515625" customWidth="1"/>
     <col min="51" max="51" width="9.42578125" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
@@ -2239,9 +2241,16 @@
       <c r="W9" s="11">
         <v>495</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="X9" s="11">
+        <v>365</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>388</v>
+      </c>
+      <c r="Z9" s="11">
+        <f>1648-SUM(W9:Y9)</f>
+        <v>400</v>
+      </c>
       <c r="AI9" s="3">
         <v>477</v>
       </c>
@@ -2264,36 +2273,36 @@
         <v>1068</v>
       </c>
       <c r="AO9" s="3">
-        <f>+AN9*1.01</f>
-        <v>1078.68</v>
+        <f>SUM(S9:V9)</f>
+        <v>1527</v>
       </c>
       <c r="AP9" s="3">
-        <f t="shared" ref="AP9:AV9" si="4">+AO9*1.01</f>
-        <v>1089.4668000000001</v>
+        <f>SUM(W9:Z9)</f>
+        <v>1648</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" si="4"/>
-        <v>1100.3614680000001</v>
+        <f t="shared" ref="AP9:AV9" si="4">+AP9*1.01</f>
+        <v>1664.48</v>
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="4"/>
-        <v>1111.3650826800001</v>
+        <v>1681.1248000000001</v>
       </c>
       <c r="AS9" s="3">
         <f t="shared" si="4"/>
-        <v>1122.4787335068002</v>
+        <v>1697.936048</v>
       </c>
       <c r="AT9" s="3">
         <f t="shared" si="4"/>
-        <v>1133.7035208418681</v>
+        <v>1714.91540848</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="4"/>
-        <v>1145.0405560502868</v>
+        <v>1732.0645625648001</v>
       </c>
       <c r="AV9" s="3">
         <f t="shared" si="4"/>
-        <v>1156.4909616107898</v>
+        <v>1749.3852081904481</v>
       </c>
     </row>
     <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2357,9 +2366,16 @@
       <c r="W10" s="11">
         <v>9574</v>
       </c>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+      <c r="X10" s="11">
+        <v>10347</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>11353</v>
+      </c>
+      <c r="Z10" s="11">
+        <f>43229-SUM(W10:Y10)</f>
+        <v>11955</v>
+      </c>
       <c r="AI10" s="3">
         <v>4056</v>
       </c>
@@ -2382,36 +2398,36 @@
         <v>26280</v>
       </c>
       <c r="AO10" s="3">
-        <f>+AN10*1.4</f>
-        <v>36792</v>
+        <f>SUM(S10:V10)</f>
+        <v>33088</v>
       </c>
       <c r="AP10" s="3">
-        <f t="shared" ref="AP10" si="5">+AO10*1.4</f>
-        <v>51508.799999999996</v>
+        <f t="shared" ref="AP10:AP15" si="5">SUM(W10:Z10)</f>
+        <v>43229</v>
       </c>
       <c r="AQ10" s="3">
         <f>+AP10*1.3</f>
-        <v>66961.440000000002</v>
+        <v>56197.700000000004</v>
       </c>
       <c r="AR10" s="3">
         <f>+AQ10*1.3</f>
-        <v>87049.872000000003</v>
+        <v>73057.010000000009</v>
       </c>
       <c r="AS10" s="3">
         <f>+AR10*1.3</f>
-        <v>113164.83360000001</v>
+        <v>94974.113000000012</v>
       </c>
       <c r="AT10" s="3">
         <f>+AS10*1.2</f>
-        <v>135797.80032000001</v>
+        <v>113968.93560000001</v>
       </c>
       <c r="AU10" s="3">
         <f>+AT10*1.2</f>
-        <v>162957.360384</v>
+        <v>136762.72272000002</v>
       </c>
       <c r="AV10" s="3">
         <f>+AU10*1.2</f>
-        <v>195548.83246079998</v>
+        <v>164115.26726400002</v>
       </c>
     </row>
     <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2475,9 +2491,16 @@
       <c r="W11" s="11">
         <v>8739</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="X11" s="11">
+        <v>9312</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>10656</v>
+      </c>
+      <c r="Z11" s="11">
+        <f>40340-SUM(W11:Y11)</f>
+        <v>11633</v>
+      </c>
       <c r="AI11" s="3">
         <v>10914</v>
       </c>
@@ -2500,36 +2523,36 @@
         <v>29055</v>
       </c>
       <c r="AO11" s="3">
-        <f>+AN11*1.03</f>
-        <v>29926.65</v>
+        <f>SUM(S11:V11)</f>
+        <v>34688</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AV11" si="6">+AO11*1.03</f>
-        <v>30824.449500000002</v>
+        <f t="shared" si="5"/>
+        <v>40340</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" si="6"/>
-        <v>31749.182985000003</v>
+        <f t="shared" ref="AP11:AV11" si="6">+AP11*1.03</f>
+        <v>41550.200000000004</v>
       </c>
       <c r="AR11" s="3">
         <f t="shared" si="6"/>
-        <v>32701.658474550004</v>
+        <v>42796.706000000006</v>
       </c>
       <c r="AS11" s="3">
         <f t="shared" si="6"/>
-        <v>33682.708228786505</v>
+        <v>44080.607180000006</v>
       </c>
       <c r="AT11" s="3">
         <f t="shared" si="6"/>
-        <v>34693.189475650099</v>
+        <v>45403.025395400007</v>
       </c>
       <c r="AU11" s="3">
         <f t="shared" si="6"/>
-        <v>35733.985159919604</v>
+        <v>46765.116157262011</v>
       </c>
       <c r="AV11" s="3">
         <f t="shared" si="6"/>
-        <v>36806.004714717194</v>
+        <v>48168.06964197987</v>
       </c>
     </row>
     <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2593,9 +2616,16 @@
       <c r="W12" s="11">
         <v>7413</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="X12" s="11">
+        <v>7444</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>7548</v>
+      </c>
+      <c r="Z12" s="11">
+        <f>30359-SUM(W12:Y12)</f>
+        <v>7954</v>
+      </c>
       <c r="AI12" s="3">
         <v>17616</v>
       </c>
@@ -2618,36 +2648,36 @@
         <v>32780</v>
       </c>
       <c r="AO12" s="3">
-        <f>+AN12*1.03</f>
-        <v>33763.4</v>
+        <f>SUM(S12:V12)</f>
+        <v>31312</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" ref="AP12:AV12" si="7">+AO12*1.03</f>
-        <v>34776.302000000003</v>
+        <f t="shared" si="5"/>
+        <v>30359</v>
       </c>
       <c r="AQ12" s="3">
-        <f t="shared" si="7"/>
-        <v>35819.591060000006</v>
+        <f t="shared" ref="AP12:AV12" si="7">+AP12*1.03</f>
+        <v>31269.77</v>
       </c>
       <c r="AR12" s="3">
         <f t="shared" si="7"/>
-        <v>36894.178791800005</v>
+        <v>32207.863100000002</v>
       </c>
       <c r="AS12" s="3">
         <f t="shared" si="7"/>
-        <v>38001.004155554008</v>
+        <v>33174.098993</v>
       </c>
       <c r="AT12" s="3">
         <f t="shared" si="7"/>
-        <v>39141.034280220629</v>
+        <v>34169.321962790003</v>
       </c>
       <c r="AU12" s="3">
         <f t="shared" si="7"/>
-        <v>40315.265308627248</v>
+        <v>35194.401621673707</v>
       </c>
       <c r="AV12" s="3">
         <f t="shared" si="7"/>
-        <v>41524.723267886067</v>
+        <v>36250.23367032392</v>
       </c>
     </row>
     <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2711,9 +2741,16 @@
       <c r="W13" s="11">
         <v>8090</v>
       </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="X13" s="11">
+        <v>8663</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>8921</v>
+      </c>
+      <c r="Z13" s="11">
+        <f>36147-SUM(W13:Y13)</f>
+        <v>10473</v>
+      </c>
       <c r="AI13" s="3">
         <v>8150</v>
       </c>
@@ -2736,36 +2773,36 @@
         <v>29243</v>
       </c>
       <c r="AO13" s="3">
-        <f>+AN13*1.05</f>
-        <v>30705.15</v>
+        <f>SUM(S13:V13)</f>
+        <v>31510</v>
       </c>
       <c r="AP13" s="3">
-        <f t="shared" ref="AP13:AV13" si="8">+AO13*1.05</f>
-        <v>32240.407500000001</v>
+        <f t="shared" si="5"/>
+        <v>36147</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" si="8"/>
-        <v>33852.427875000001</v>
+        <f t="shared" ref="AP13:AV13" si="8">+AP13*1.05</f>
+        <v>37954.35</v>
       </c>
       <c r="AR13" s="3">
         <f t="shared" si="8"/>
-        <v>35545.049268750001</v>
+        <v>39852.067499999997</v>
       </c>
       <c r="AS13" s="3">
         <f t="shared" si="8"/>
-        <v>37322.301732187501</v>
+        <v>41844.670874999996</v>
       </c>
       <c r="AT13" s="3">
         <f t="shared" si="8"/>
-        <v>39188.416818796875</v>
+        <v>43936.904418749997</v>
       </c>
       <c r="AU13" s="3">
         <f t="shared" si="8"/>
-        <v>41147.837659736724</v>
+        <v>46133.749639687499</v>
       </c>
       <c r="AV13" s="3">
         <f t="shared" si="8"/>
-        <v>43205.229542723566</v>
+        <v>48440.437121671879</v>
       </c>
     </row>
     <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2829,9 +2866,16 @@
       <c r="W14" s="11">
         <v>46156</v>
       </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="X14" s="11">
+        <v>48509</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>49385</v>
+      </c>
+      <c r="Z14" s="11">
+        <f>198084-SUM(W14:Y14)</f>
+        <v>54034</v>
+      </c>
       <c r="AI14" s="3">
         <v>69811</v>
       </c>
@@ -2854,36 +2898,36 @@
         <v>162450</v>
       </c>
       <c r="AO14" s="3">
-        <f>+AN14*1.1</f>
-        <v>178695</v>
+        <f>SUM(S14:V14)</f>
+        <v>175033</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" ref="AP14:AV14" si="9">+AO14*1.1</f>
-        <v>196564.50000000003</v>
+        <f t="shared" si="5"/>
+        <v>198084</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="9"/>
-        <v>216220.95000000004</v>
+        <f t="shared" ref="AP14:AV14" si="9">+AP14*1.1</f>
+        <v>217892.40000000002</v>
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="9"/>
-        <v>237843.04500000007</v>
+        <v>239681.64000000004</v>
       </c>
       <c r="AS14" s="3">
         <f t="shared" si="9"/>
-        <v>261627.3495000001</v>
+        <v>263649.80400000006</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="9"/>
-        <v>287790.08445000014</v>
+        <v>290014.78440000012</v>
       </c>
       <c r="AU14" s="3">
         <f t="shared" si="9"/>
-        <v>316569.09289500018</v>
+        <v>319016.26284000016</v>
       </c>
       <c r="AV14" s="3">
         <f t="shared" si="9"/>
-        <v>348226.00218450022</v>
+        <v>350917.88912400021</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2950,55 +2994,54 @@
         <v>61377</v>
       </c>
       <c r="R15" s="11">
-        <f>SUM(R11:R14)</f>
+        <f t="shared" ref="R15:Z15" si="14">SUM(R11:R14)</f>
         <v>67838</v>
       </c>
       <c r="S15" s="11">
-        <f>SUM(S11:S14)</f>
+        <f t="shared" si="14"/>
         <v>61961</v>
       </c>
       <c r="T15" s="11">
-        <f>SUM(T11:T14)</f>
+        <f t="shared" si="14"/>
         <v>66285</v>
       </c>
       <c r="U15" s="11">
-        <f>SUM(U11:U14)</f>
+        <f t="shared" si="14"/>
         <v>67986</v>
       </c>
       <c r="V15" s="11">
-        <f>SUM(V11:V14)</f>
+        <f t="shared" si="14"/>
         <v>76311</v>
       </c>
       <c r="W15" s="11">
-        <f>SUM(W11:W14)</f>
+        <f t="shared" si="14"/>
         <v>70398</v>
       </c>
       <c r="X15" s="11">
-        <f>SUM(X11:X14)</f>
-        <v>0</v>
+        <v>73928</v>
       </c>
       <c r="Y15" s="11">
-        <f>SUM(Y11:Y14)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>76510</v>
       </c>
       <c r="Z15" s="11">
-        <f>SUM(Z11:Z14)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>84094</v>
       </c>
       <c r="AI15" s="11">
-        <f t="shared" ref="AI15:AL15" si="14">SUM(AI11:AI14)</f>
+        <f t="shared" ref="AI15:AL15" si="15">SUM(AI11:AI14)</f>
         <v>106491</v>
       </c>
       <c r="AJ15" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>130524</v>
       </c>
       <c r="AK15" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>151825</v>
       </c>
       <c r="AL15" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>168635</v>
       </c>
       <c r="AM15" s="11">
@@ -3011,35 +3054,35 @@
       </c>
       <c r="AO15" s="11">
         <f>SUM(AO11:AO14)</f>
-        <v>273090.2</v>
-      </c>
-      <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AV15" si="15">SUM(AP11:AP14)</f>
-        <v>294405.65900000004</v>
+        <v>272543</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" si="5"/>
+        <v>304930</v>
       </c>
       <c r="AQ15" s="11">
-        <f t="shared" si="15"/>
-        <v>317642.15192000009</v>
+        <f t="shared" ref="AP15:AV15" si="16">SUM(AQ11:AQ14)</f>
+        <v>328666.72000000003</v>
       </c>
       <c r="AR15" s="11">
-        <f t="shared" si="15"/>
-        <v>342983.9315351001</v>
+        <f t="shared" si="16"/>
+        <v>354538.27660000004</v>
       </c>
       <c r="AS15" s="11">
-        <f t="shared" si="15"/>
-        <v>370633.36361652811</v>
+        <f t="shared" si="16"/>
+        <v>382749.18104800006</v>
       </c>
       <c r="AT15" s="11">
-        <f t="shared" si="15"/>
-        <v>400812.72502466774</v>
+        <f t="shared" si="16"/>
+        <v>413524.03617694014</v>
       </c>
       <c r="AU15" s="11">
-        <f t="shared" si="15"/>
-        <v>433766.18102328375</v>
+        <f t="shared" si="16"/>
+        <v>447109.53025862342</v>
       </c>
       <c r="AV15" s="11">
-        <f t="shared" si="15"/>
-        <v>469761.95970982703</v>
+        <f t="shared" si="16"/>
+        <v>483776.62955797592</v>
       </c>
     </row>
     <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3047,27 +3090,27 @@
         <v>8</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" ref="C16:G16" si="16">C15+C10+C9+C8</f>
+        <f t="shared" ref="C16:G16" si="17">C15+C10+C9+C8</f>
         <v>36339</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41159</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" ref="H16" si="17">H15+H10+H9+H8</f>
+        <f t="shared" ref="H16" si="18">H15+H10+H9+H8</f>
         <v>38297</v>
       </c>
       <c r="I16" s="10">
@@ -3082,7 +3125,7 @@
         <v>55314</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16" si="18">L15+L10+L9+L8</f>
+        <f t="shared" ref="L16" si="19">L15+L10+L9+L8</f>
         <v>61880</v>
       </c>
       <c r="M16" s="10">
@@ -3102,7 +3145,7 @@
         <v>69685</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Z16" si="19">Q15+Q10+Q9+Q8</f>
+        <f t="shared" ref="Q16:Z16" si="20">Q15+Q10+Q9+Q8</f>
         <v>69092</v>
       </c>
       <c r="R16" s="10">
@@ -3110,36 +3153,34 @@
         <v>76048</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>69787</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>74604</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>76693</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>86310</v>
       </c>
       <c r="W16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>80539</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>84742</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>88268</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>350018-SUM(W16:Y16)</f>
+        <v>96469</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3160,19 +3201,19 @@
         <v>90272</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" ref="AI16:AL16" si="20">AI15+AI10+AI9+AI8</f>
+        <f t="shared" ref="AI16:AL16" si="21">AI15+AI10+AI9+AI8</f>
         <v>110855</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>136819</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>161857</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>182527</v>
       </c>
       <c r="AM16" s="10">
@@ -3184,36 +3225,36 @@
         <v>282836</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16" si="21">AO15+AO10+AO9+AO8</f>
-        <v>310960.88</v>
+        <f t="shared" ref="AO16" si="22">AO15+AO10+AO9+AO8</f>
+        <v>307158</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" ref="AP16" si="22">AP15+AP10+AP9+AP8</f>
-        <v>347003.92580000003</v>
+        <f t="shared" ref="AP16" si="23">AP15+AP10+AP9+AP8</f>
+        <v>349807</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" ref="AQ16" si="23">AQ15+AQ10+AQ9+AQ8</f>
-        <v>385703.95338800008</v>
+        <f t="shared" ref="AQ16" si="24">AQ15+AQ10+AQ9+AQ8</f>
+        <v>386528.9</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" ref="AR16" si="24">AR15+AR10+AR9+AR8</f>
-        <v>431145.16861778009</v>
+        <f t="shared" ref="AR16" si="25">AR15+AR10+AR9+AR8</f>
+        <v>429276.41140000004</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" ref="AS16" si="25">AS15+AS10+AS9+AS8</f>
-        <v>484920.67595003493</v>
+        <f t="shared" ref="AS16" si="26">AS15+AS10+AS9+AS8</f>
+        <v>479421.23009600007</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" ref="AT16" si="26">AT15+AT10+AT9+AT8</f>
-        <v>537744.22886550962</v>
+        <f t="shared" ref="AT16" si="27">AT15+AT10+AT9+AT8</f>
+        <v>529207.88718542014</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" ref="AU16" si="27">AU15+AU10+AU9+AU8</f>
-        <v>597868.581963334</v>
+        <f t="shared" ref="AU16" si="28">AU15+AU10+AU9+AU8</f>
+        <v>585604.31754118821</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" ref="AV16" si="28">AV15+AV10+AV9+AV8</f>
-        <v>666467.28313223785</v>
+        <f t="shared" ref="AV16" si="29">AV15+AV10+AV9+AV8</f>
+        <v>649641.28203016636</v>
       </c>
     </row>
     <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3274,10 +3315,19 @@
       <c r="V17" s="11">
         <v>37575</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
+      <c r="W17" s="11">
+        <v>33712</v>
+      </c>
+      <c r="X17" s="11">
+        <v>35507</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>36474</v>
+      </c>
+      <c r="Z17" s="11">
+        <f>146306-SUM(W17:Y17)</f>
+        <v>40613</v>
+      </c>
       <c r="AF17" s="3">
         <v>25691</v>
       </c>
@@ -3308,35 +3358,35 @@
       </c>
       <c r="AO17" s="3">
         <f>+AO16-AO19</f>
-        <v>136822.78719999999</v>
+        <v>135149.51999999999</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" ref="AP17:AV17" si="29">+AP16-AP19</f>
-        <v>152681.72735199999</v>
+        <f t="shared" ref="AP17:AV17" si="30">+AP16-AP19</f>
+        <v>153915.07999999999</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" si="29"/>
-        <v>169709.73949072001</v>
+        <f t="shared" si="30"/>
+        <v>170072.71599999999</v>
       </c>
       <c r="AR17" s="3">
-        <f t="shared" si="29"/>
-        <v>189703.87419182321</v>
+        <f t="shared" si="30"/>
+        <v>188881.62101599999</v>
       </c>
       <c r="AS17" s="3">
-        <f t="shared" si="29"/>
-        <v>213365.09741801536</v>
+        <f t="shared" si="30"/>
+        <v>210945.34124223999</v>
       </c>
       <c r="AT17" s="3">
-        <f t="shared" si="29"/>
-        <v>236607.46070082422</v>
+        <f t="shared" si="30"/>
+        <v>232851.47036158486</v>
       </c>
       <c r="AU17" s="3">
-        <f t="shared" si="29"/>
-        <v>263062.17606386694</v>
+        <f t="shared" si="30"/>
+        <v>257665.89971812279</v>
       </c>
       <c r="AV17" s="3">
-        <f t="shared" si="29"/>
-        <v>293245.6045781846</v>
+        <f t="shared" si="30"/>
+        <v>285842.16409327317</v>
       </c>
     </row>
     <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3404,31 +3454,31 @@
         <v>22177</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ref="H19" si="30">H16-H17</f>
+        <f t="shared" ref="H19" si="31">H16-H17</f>
         <v>19744</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19" si="31">I16-I17</f>
+        <f t="shared" ref="I19" si="32">I16-I17</f>
         <v>25056</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19:N19" si="32">J16-J17</f>
+        <f t="shared" ref="J19:N19" si="33">J16-J17</f>
         <v>30818</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>31211</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>35653</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>37497</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>42337</v>
       </c>
       <c r="O19" s="11">
@@ -3436,11 +3486,11 @@
         <v>38412</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:Q19" si="33">P16-P17</f>
+        <f t="shared" ref="P19:Q19" si="34">P16-P17</f>
         <v>39581</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>37934</v>
       </c>
       <c r="R19" s="11">
@@ -3460,47 +3510,47 @@
         <v>43464</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" ref="V19:Z19" si="34">V16-V17</f>
+        <f t="shared" ref="V19:Z19" si="35">V16-V17</f>
         <v>48735</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="34"/>
-        <v>80539</v>
+        <f t="shared" si="35"/>
+        <v>46827</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>49235</v>
       </c>
       <c r="Y19" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>51794</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>55856</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19:AK19" si="35">+AF16-AF17</f>
+        <f t="shared" ref="AF19:AK19" si="36">+AF16-AF17</f>
         <v>40310</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>46825</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>55134</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>65272</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>77270</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>89961</v>
       </c>
       <c r="AL19" s="3">
@@ -3508,7 +3558,7 @@
         <v>97795</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" ref="AM19" si="36">AM16-AM17</f>
+        <f t="shared" ref="AM19" si="37">AM16-AM17</f>
         <v>146698</v>
       </c>
       <c r="AN19" s="3">
@@ -3517,35 +3567,35 @@
       </c>
       <c r="AO19" s="3">
         <f>+AO16*0.56</f>
-        <v>174138.09280000001</v>
+        <v>172008.48</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AV19" si="37">+AP16*0.56</f>
-        <v>194322.19844800004</v>
+        <f t="shared" ref="AP19:AV19" si="38">+AP16*0.56</f>
+        <v>195891.92</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="37"/>
-        <v>215994.21389728007</v>
+        <f t="shared" si="38"/>
+        <v>216456.18400000004</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="37"/>
-        <v>241441.29442595688</v>
+        <f t="shared" si="38"/>
+        <v>240394.79038400005</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="37"/>
-        <v>271555.57853201957</v>
+        <f t="shared" si="38"/>
+        <v>268475.88885376009</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="37"/>
-        <v>301136.7681646854</v>
+        <f t="shared" si="38"/>
+        <v>296356.41682383529</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="37"/>
-        <v>334806.40589946706</v>
+        <f t="shared" si="38"/>
+        <v>327938.41782306542</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="37"/>
-        <v>373221.67855405324</v>
+        <f t="shared" si="38"/>
+        <v>363799.11793689319</v>
       </c>
     </row>
     <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3606,10 +3656,19 @@
       <c r="V20" s="11">
         <v>12113</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="W20" s="11">
+        <v>11903</v>
+      </c>
+      <c r="X20" s="11">
+        <v>11860</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>12447</v>
+      </c>
+      <c r="Z20" s="11">
+        <f>49326-SUM(W20:Y20)</f>
+        <v>13116</v>
+      </c>
       <c r="AF20" s="3">
         <v>9832</v>
       </c>
@@ -3635,7 +3694,7 @@
         <v>31562</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" ref="AN20:AN22" si="38">SUM(O20:R20)</f>
+        <f t="shared" ref="AN20:AN22" si="39">SUM(O20:R20)</f>
         <v>39500</v>
       </c>
       <c r="AO20" s="3">
@@ -3643,31 +3702,31 @@
         <v>41475</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" ref="AP20:AV20" si="39">+AO20*1.05</f>
+        <f t="shared" ref="AP20:AV20" si="40">+AO20*1.05</f>
         <v>43548.75</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>45726.1875</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>48012.496875000004</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>50413.121718750008</v>
       </c>
       <c r="AT20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>52933.77780468751</v>
       </c>
       <c r="AU20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>55580.466694921888</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>58359.490029667984</v>
       </c>
     </row>
@@ -3729,10 +3788,19 @@
       <c r="V21" s="11">
         <v>7719</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="W21" s="11">
+        <v>6426</v>
+      </c>
+      <c r="X21" s="11">
+        <v>6792</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>7227</v>
+      </c>
+      <c r="Z21" s="11">
+        <f>27808-SUM(W21:Y21)</f>
+        <v>7363</v>
+      </c>
       <c r="AF21" s="3">
         <v>8131</v>
       </c>
@@ -3758,7 +3826,7 @@
         <v>22912</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>26567</v>
       </c>
       <c r="AO21" s="3">
@@ -3766,31 +3834,31 @@
         <v>27895.350000000002</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" ref="AP21:AV21" si="40">+AO21*1.05</f>
+        <f t="shared" ref="AP21:AV21" si="41">+AO21*1.05</f>
         <v>29290.117500000004</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>30754.623375000006</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>32292.354543750007</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>33906.972270937506</v>
       </c>
       <c r="AT21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>35602.320884484383</v>
       </c>
       <c r="AU21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>37382.436928708601</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>39251.558775144033</v>
       </c>
     </row>
@@ -3852,10 +3920,19 @@
       <c r="V22" s="11">
         <v>5206</v>
       </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="W22" s="11">
+        <v>3026</v>
+      </c>
+      <c r="X22" s="11">
+        <v>3158</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>3599</v>
+      </c>
+      <c r="Z22" s="11">
+        <f>14188-SUM(W22:Y22)</f>
+        <v>4405</v>
+      </c>
       <c r="AF22" s="3">
         <v>5851</v>
       </c>
@@ -3881,7 +3958,7 @@
         <v>13510</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>15724</v>
       </c>
       <c r="AO22" s="3">
@@ -3889,31 +3966,31 @@
         <v>16510.2</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" ref="AP22:AV22" si="41">+AO22*1.05</f>
+        <f t="shared" ref="AP22:AV22" si="42">+AO22*1.05</f>
         <v>17335.710000000003</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18202.495500000005</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19112.620275000005</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20068.251288750005</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21071.663853187507</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22125.247045846882</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23231.509398139227</v>
       </c>
     </row>
@@ -3922,26 +3999,26 @@
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="42">SUM(C20:C22)</f>
+        <f t="shared" ref="C23" si="43">SUM(C20:C22)</f>
         <v>12022</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="43">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="44">SUM(G20:G22)</f>
         <v>14200</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="44">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="45">SUM(H20:H22)</f>
         <v>13361</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="45">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="46">SUM(I20:I22)</f>
         <v>13843</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="46">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="47">SUM(J20:J22)</f>
         <v>15167</v>
       </c>
       <c r="K23" s="11">
@@ -3949,27 +4026,27 @@
         <v>14774</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="47">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:O23" si="48">SUM(L20:L22)</f>
         <v>16292</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>16466</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>20452</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>18318</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23:Q23" si="48">SUM(P20:P22)</f>
+        <f t="shared" ref="P23:Q23" si="49">SUM(P20:P22)</f>
         <v>20128</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>20799</v>
       </c>
       <c r="R23" s="11">
@@ -3977,7 +4054,7 @@
         <v>22546</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23:W23" si="49">SUM(S20:S22)</f>
+        <f t="shared" ref="S23:W23" si="50">SUM(S20:S22)</f>
         <v>21760</v>
       </c>
       <c r="T23" s="11">
@@ -3985,51 +4062,51 @@
         <v>20850</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>22121</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>25038</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>21355</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" ref="X23:Z23" si="50">SUM(X20:X22)</f>
-        <v>0</v>
+        <f t="shared" ref="X23:Z23" si="51">SUM(X20:X22)</f>
+        <v>21810</v>
       </c>
       <c r="Y23" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>23273</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>24884</v>
       </c>
       <c r="AF23" s="3">
         <f>SUM(AF20:AF22)</f>
         <v>23814</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23:AK23" si="51">SUM(AG20:AG22)</f>
+        <f t="shared" ref="AG23:AK23" si="52">SUM(AG20:AG22)</f>
         <v>27465</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>31418</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>36390</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>45878</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>54033</v>
       </c>
       <c r="AL23" s="3">
@@ -4037,43 +4114,43 @@
         <v>56571</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" ref="AM23:AO23" si="52">SUM(AM20:AM22)</f>
+        <f t="shared" ref="AM23:AO23" si="53">SUM(AM20:AM22)</f>
         <v>67984</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>81791</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>85880.55</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23:AV23" si="53">SUM(AP20:AP22)</f>
+        <f t="shared" ref="AP23:AV23" si="54">SUM(AP20:AP22)</f>
         <v>90174.577500000014</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>94683.306375000015</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>99417.47169375002</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>104388.34527843751</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>109607.7625423594</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>115088.15066947739</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>120842.55820295124</v>
       </c>
     </row>
@@ -4082,42 +4159,42 @@
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24" si="54">C19-C23</f>
+        <f t="shared" ref="C24" si="55">C19-C23</f>
         <v>8305</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="55">G19-G23</f>
+        <f t="shared" ref="G24" si="56">G19-G23</f>
         <v>7977</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24" si="56">H19-H23</f>
+        <f t="shared" ref="H24" si="57">H19-H23</f>
         <v>6383</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="57">I19-I23</f>
+        <f t="shared" ref="I24" si="58">I19-I23</f>
         <v>11213</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="58">J19-J23</f>
+        <f t="shared" ref="J24" si="59">J19-J23</f>
         <v>15651</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N24" si="59">K19-K23</f>
+        <f t="shared" ref="K24:N24" si="60">K19-K23</f>
         <v>16437</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>19361</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>21031</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>21885</v>
       </c>
       <c r="O24" s="11">
@@ -4125,19 +4202,19 @@
         <v>20094</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" ref="P24:R24" si="60">P19-P23</f>
+        <f t="shared" ref="P24:R24" si="61">P19-P23</f>
         <v>19453</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>17135</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>18160</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24:W24" si="61">S19-S23</f>
+        <f t="shared" ref="S24:W24" si="62">S19-S23</f>
         <v>17415</v>
       </c>
       <c r="T24" s="11">
@@ -4145,51 +4222,51 @@
         <v>21838</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>21343</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>23697</v>
       </c>
       <c r="W24" s="11">
-        <f t="shared" si="61"/>
-        <v>80539</v>
+        <f t="shared" si="62"/>
+        <v>25472</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" ref="X24:Z24" si="62">X19-X23</f>
-        <v>0</v>
+        <f t="shared" ref="X24:Z24" si="63">X19-X23</f>
+        <v>27425</v>
       </c>
       <c r="Y24" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>28521</v>
       </c>
       <c r="Z24" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>30972</v>
       </c>
       <c r="AF24" s="3">
         <f>AF19-AF23</f>
         <v>16496</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24:AK24" si="63">AG19-AG23</f>
+        <f t="shared" ref="AG24:AK24" si="64">AG19-AG23</f>
         <v>19360</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>23716</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>28882</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>31392</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>35928</v>
       </c>
       <c r="AL24" s="3">
@@ -4197,44 +4274,44 @@
         <v>41224</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" ref="AM24:AO24" si="64">AM19-AM23</f>
+        <f t="shared" ref="AM24:AO24" si="65">AM19-AM23</f>
         <v>78714</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>74842</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="64"/>
-        <v>88257.54280000001</v>
+        <f t="shared" si="65"/>
+        <v>86127.930000000008</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24:AV24" si="65">AP19-AP23</f>
-        <v>104147.62094800003</v>
+        <f t="shared" ref="AP24:AV24" si="66">AP19-AP23</f>
+        <v>105717.3425</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="65"/>
-        <v>121310.90752228006</v>
+        <f t="shared" si="66"/>
+        <v>121772.87762500002</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="65"/>
-        <v>142023.82273220684</v>
+        <f t="shared" si="66"/>
+        <v>140977.31869025005</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="65"/>
-        <v>167167.23325358206</v>
+        <f t="shared" si="66"/>
+        <v>164087.54357532258</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="65"/>
-        <v>191529.00562232599</v>
+        <f t="shared" si="66"/>
+        <v>186748.65428147587</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="65"/>
-        <v>219718.25522998968</v>
+        <f t="shared" si="66"/>
+        <v>212850.26715358804</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="65"/>
-        <v>252379.120351102</v>
+        <f t="shared" si="66"/>
+        <v>242956.55973394195</v>
       </c>
     </row>
     <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4295,10 +4372,20 @@
       <c r="V25" s="11">
         <v>715</v>
       </c>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="W25" s="11">
+        <v>2843</v>
+      </c>
+      <c r="X25" s="11">
+        <v>126</v>
+      </c>
+      <c r="Y25" s="11">
+        <f>709</f>
+        <v>709</v>
+      </c>
+      <c r="Z25" s="11">
+        <f>7425-SUM(W25:Y25)</f>
+        <v>3747</v>
+      </c>
       <c r="AF25" s="3">
         <v>763</v>
       </c>
@@ -4324,7 +4411,7 @@
         <v>12020</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25:AN27" si="66">SUM(O25:R25)</f>
+        <f t="shared" ref="AN25:AN27" si="67">SUM(O25:R25)</f>
         <v>-3514</v>
       </c>
       <c r="AO25" s="3">
@@ -4332,32 +4419,32 @@
         <v>1295.53</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" ref="AP25:AV25" si="67">+AO43*$AY$34</f>
-        <v>2029.86519696</v>
+        <f t="shared" ref="AP25:AV25" si="68">+AO43*$AY$34</f>
+        <v>2012.402372</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" si="67"/>
-        <v>2900.5205833486725</v>
+        <f t="shared" si="68"/>
+        <v>2895.7862799504005</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="67"/>
-        <v>3919.0542938148278</v>
+        <f t="shared" si="68"/>
+        <v>3918.069323970994</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="67"/>
-        <v>5115.7858854282058</v>
+        <f t="shared" si="68"/>
+        <v>5106.2115056876064</v>
       </c>
       <c r="AT25" s="3">
-        <f t="shared" si="67"/>
-        <v>6528.5066423680892</v>
+        <f t="shared" si="68"/>
+        <v>6493.6002973518898</v>
       </c>
       <c r="AU25" s="3">
-        <f t="shared" si="67"/>
-        <v>8152.5782429385808</v>
+        <f t="shared" si="68"/>
+        <v>8078.1867848982765</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="67"/>
-        <v>10021.119077416592</v>
+        <f t="shared" si="68"/>
+        <v>9889.8001071938634</v>
       </c>
     </row>
     <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4365,26 +4452,26 @@
         <v>29</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="68">C24+C25</f>
+        <f t="shared" ref="C26" si="69">C24+C25</f>
         <v>9843</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="69">G24+G25</f>
+        <f t="shared" ref="G26" si="70">G24+G25</f>
         <v>7757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="70">H24+H25</f>
+        <f t="shared" ref="H26" si="71">H24+H25</f>
         <v>8277</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26" si="71">I24+I25</f>
+        <f t="shared" ref="I26" si="72">I24+I25</f>
         <v>13359</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" ref="J26" si="72">J24+J25</f>
+        <f t="shared" ref="J26" si="73">J24+J25</f>
         <v>18689</v>
       </c>
       <c r="K26" s="11">
@@ -4392,87 +4479,87 @@
         <v>21283</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ref="L26:O26" si="73">L24+L25</f>
+        <f t="shared" ref="L26:O26" si="74">L24+L25</f>
         <v>21625</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>23064</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>24402</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>18934</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" ref="P26:Z26" si="74">P24+P25</f>
+        <f t="shared" ref="P26:Z26" si="75">P24+P25</f>
         <v>19014</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>16233</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>17147</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>18205</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>21903</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>21197</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>24412</v>
       </c>
       <c r="W26" s="11">
-        <f t="shared" si="74"/>
-        <v>80539</v>
+        <f t="shared" si="75"/>
+        <v>28315</v>
       </c>
       <c r="X26" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>27551</v>
       </c>
       <c r="Y26" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>29230</v>
       </c>
       <c r="Z26" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>34719</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26:AK26" si="75">+AF24+AF25</f>
+        <f t="shared" ref="AF26:AK26" si="76">+AF24+AF25</f>
         <v>17259</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>19651</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>24150</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>29929</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>39984</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>41322</v>
       </c>
       <c r="AL26" s="3">
@@ -4480,44 +4567,44 @@
         <v>48082</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" ref="AM26:AO26" si="76">AM24+AM25</f>
+        <f t="shared" ref="AM26:AO26" si="77">AM24+AM25</f>
         <v>90734</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>71328</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="76"/>
-        <v>89553.072800000009</v>
+        <f t="shared" si="77"/>
+        <v>87423.46</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" ref="AP26:AV26" si="77">AP24+AP25</f>
-        <v>106177.48614496003</v>
+        <f t="shared" ref="AP26:AV26" si="78">AP24+AP25</f>
+        <v>107729.744872</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="77"/>
-        <v>124211.42810562873</v>
+        <f t="shared" si="78"/>
+        <v>124668.66390495043</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="77"/>
-        <v>145942.87702602166</v>
+        <f t="shared" si="78"/>
+        <v>144895.38801422104</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="77"/>
-        <v>172283.01913901026</v>
+        <f t="shared" si="78"/>
+        <v>169193.75508101017</v>
       </c>
       <c r="AT26" s="3">
-        <f t="shared" si="77"/>
-        <v>198057.51226469409</v>
+        <f t="shared" si="78"/>
+        <v>193242.25457882776</v>
       </c>
       <c r="AU26" s="3">
-        <f t="shared" si="77"/>
-        <v>227870.83347292827</v>
+        <f t="shared" si="78"/>
+        <v>220928.45393848632</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="77"/>
-        <v>262400.23942851857</v>
+        <f t="shared" si="78"/>
+        <v>252846.3598411358</v>
       </c>
     </row>
     <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4578,10 +4665,20 @@
       <c r="V27" s="11">
         <v>3725</v>
       </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="W27" s="11">
+        <v>4653</v>
+      </c>
+      <c r="X27" s="11">
+        <v>3932</v>
+      </c>
+      <c r="Y27" s="11">
+        <f>5405</f>
+        <v>5405</v>
+      </c>
+      <c r="Z27" s="11">
+        <f>19697-SUM(W27:Y27)</f>
+        <v>5707</v>
+      </c>
       <c r="AF27" s="3">
         <v>3639</v>
       </c>
@@ -4607,40 +4704,40 @@
         <v>14701</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>11356</v>
       </c>
       <c r="AO27" s="3">
         <f>+AO26*0.18</f>
-        <v>16119.553104000001</v>
+        <v>15736.222800000001</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AV27" si="78">+AP26*0.18</f>
-        <v>19111.947506092805</v>
+        <f t="shared" ref="AP27:AV27" si="79">+AP26*0.18</f>
+        <v>19391.354076959997</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="78"/>
-        <v>22358.057059013172</v>
+        <f t="shared" si="79"/>
+        <v>22440.359502891075</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="78"/>
-        <v>26269.717864683898</v>
+        <f t="shared" si="79"/>
+        <v>26081.169842559786</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="78"/>
-        <v>31010.943445021843</v>
+        <f t="shared" si="79"/>
+        <v>30454.875914581829</v>
       </c>
       <c r="AT27" s="3">
-        <f t="shared" si="78"/>
-        <v>35650.352207644937</v>
+        <f t="shared" si="79"/>
+        <v>34783.605824188999</v>
       </c>
       <c r="AU27" s="3">
-        <f t="shared" si="78"/>
-        <v>41016.750025127083</v>
+        <f t="shared" si="79"/>
+        <v>39767.121708927538</v>
       </c>
       <c r="AV27" s="3">
-        <f t="shared" si="78"/>
-        <v>47232.043097133341</v>
+        <f t="shared" si="79"/>
+        <v>45512.344771404445</v>
       </c>
     </row>
     <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4648,26 +4745,26 @@
         <v>31</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="79">C26-C27</f>
+        <f t="shared" ref="C28" si="80">C26-C27</f>
         <v>8354</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="80">G26-G27</f>
+        <f t="shared" ref="G28" si="81">G26-G27</f>
         <v>6836</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28" si="81">H26-H27</f>
+        <f t="shared" ref="H28" si="82">H26-H27</f>
         <v>6959</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28" si="82">I26-I27</f>
+        <f t="shared" ref="I28" si="83">I26-I27</f>
         <v>11247</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="83">J26-J27</f>
+        <f t="shared" ref="J28" si="84">J26-J27</f>
         <v>15227</v>
       </c>
       <c r="K28" s="11">
@@ -4675,87 +4772,87 @@
         <v>17930</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ref="L28:O28" si="84">L26-L27</f>
+        <f t="shared" ref="L28:O28" si="85">L26-L27</f>
         <v>18165</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>18936</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>20642</v>
       </c>
       <c r="O28" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>16436</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" ref="P28:Z28" si="85">P26-P27</f>
+        <f t="shared" ref="P28:Z28" si="86">P26-P27</f>
         <v>16002</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>13910</v>
       </c>
       <c r="R28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>13624</v>
       </c>
       <c r="S28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>15051</v>
       </c>
       <c r="T28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>18368</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>19689</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>20687</v>
       </c>
       <c r="W28" s="11">
-        <f t="shared" si="85"/>
-        <v>80539</v>
+        <f t="shared" si="86"/>
+        <v>23662</v>
       </c>
       <c r="X28" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>23619</v>
       </c>
       <c r="Y28" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>23825</v>
       </c>
       <c r="Z28" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>29012</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AK28" si="86">+AF26-AF27</f>
+        <f t="shared" ref="AF28:AK28" si="87">+AF26-AF27</f>
         <v>13620</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>16348</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>19478</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>15398</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>35807</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>36040</v>
       </c>
       <c r="AL28" s="3">
@@ -4763,272 +4860,272 @@
         <v>40269</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" ref="AM28:AO28" si="87">AM26-AM27</f>
+        <f t="shared" ref="AM28:AO28" si="88">AM26-AM27</f>
         <v>76033</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>59972</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="87"/>
-        <v>73433.519696000003</v>
+        <f t="shared" si="88"/>
+        <v>71687.237200000003</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" ref="AP28:AV28" si="88">AP26-AP27</f>
-        <v>87065.53863886722</v>
+        <f t="shared" ref="AP28:AV28" si="89">AP26-AP27</f>
+        <v>88338.390795040003</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="88"/>
-        <v>101853.37104661556</v>
+        <f t="shared" si="89"/>
+        <v>102228.30440205935</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="88"/>
-        <v>119673.15916133775</v>
+        <f t="shared" si="89"/>
+        <v>118814.21817166125</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="88"/>
-        <v>141272.07569398842</v>
+        <f t="shared" si="89"/>
+        <v>138738.87916642835</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="88"/>
-        <v>162407.16005704916</v>
+        <f t="shared" si="89"/>
+        <v>158458.64875463877</v>
       </c>
       <c r="AU28" s="3">
-        <f t="shared" si="88"/>
-        <v>186854.08344780118</v>
+        <f t="shared" si="89"/>
+        <v>181161.33222955879</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="88"/>
-        <v>215168.19633138523</v>
+        <f t="shared" si="89"/>
+        <v>207334.01506973134</v>
       </c>
       <c r="AW28" s="3">
         <f>+AV28*(1+$AY$32)</f>
-        <v>213016.51436807137</v>
+        <v>205260.67491903403</v>
       </c>
       <c r="AX28" s="3">
-        <f t="shared" ref="AX28:DA28" si="89">+AW28*(1+$AY$32)</f>
-        <v>210886.34922439064</v>
+        <f t="shared" ref="AX28:DA28" si="90">+AW28*(1+$AY$32)</f>
+        <v>203208.0681698437</v>
       </c>
       <c r="AY28" s="3">
-        <f t="shared" si="89"/>
-        <v>208777.48573214674</v>
+        <f t="shared" si="90"/>
+        <v>201175.98748814527</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="89"/>
-        <v>206689.71087482528</v>
+        <f t="shared" si="90"/>
+        <v>199164.22761326382</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="89"/>
-        <v>204622.81376607702</v>
+        <f t="shared" si="90"/>
+        <v>197172.58533713117</v>
       </c>
       <c r="BB28" s="3">
-        <f t="shared" si="89"/>
-        <v>202576.58562841624</v>
+        <f t="shared" si="90"/>
+        <v>195200.85948375985</v>
       </c>
       <c r="BC28" s="3">
-        <f t="shared" si="89"/>
-        <v>200550.81977213209</v>
+        <f t="shared" si="90"/>
+        <v>193248.85088892226</v>
       </c>
       <c r="BD28" s="3">
-        <f t="shared" si="89"/>
-        <v>198545.31157441076</v>
+        <f t="shared" si="90"/>
+        <v>191316.36238003304</v>
       </c>
       <c r="BE28" s="3">
-        <f t="shared" si="89"/>
-        <v>196559.85845866665</v>
+        <f t="shared" si="90"/>
+        <v>189403.19875623271</v>
       </c>
       <c r="BF28" s="3">
-        <f t="shared" si="89"/>
-        <v>194594.25987407999</v>
+        <f t="shared" si="90"/>
+        <v>187509.16676867037</v>
       </c>
       <c r="BG28" s="3">
-        <f t="shared" si="89"/>
-        <v>192648.31727533918</v>
+        <f t="shared" si="90"/>
+        <v>185634.07510098367</v>
       </c>
       <c r="BH28" s="3">
-        <f t="shared" si="89"/>
-        <v>190721.8341025858</v>
+        <f t="shared" si="90"/>
+        <v>183777.73434997382</v>
       </c>
       <c r="BI28" s="3">
-        <f t="shared" si="89"/>
-        <v>188814.61576155992</v>
+        <f t="shared" si="90"/>
+        <v>181939.95700647408</v>
       </c>
       <c r="BJ28" s="3">
-        <f t="shared" si="89"/>
-        <v>186926.46960394431</v>
+        <f t="shared" si="90"/>
+        <v>180120.55743640935</v>
       </c>
       <c r="BK28" s="3">
-        <f t="shared" si="89"/>
-        <v>185057.20490790487</v>
+        <f t="shared" si="90"/>
+        <v>178319.35186204527</v>
       </c>
       <c r="BL28" s="3">
-        <f t="shared" si="89"/>
-        <v>183206.63285882582</v>
+        <f t="shared" si="90"/>
+        <v>176536.15834342482</v>
       </c>
       <c r="BM28" s="3">
-        <f t="shared" si="89"/>
-        <v>181374.56653023756</v>
+        <f t="shared" si="90"/>
+        <v>174770.79675999057</v>
       </c>
       <c r="BN28" s="3">
-        <f t="shared" si="89"/>
-        <v>179560.82086493517</v>
+        <f t="shared" si="90"/>
+        <v>173023.08879239066</v>
       </c>
       <c r="BO28" s="3">
-        <f t="shared" si="89"/>
-        <v>177765.21265628582</v>
+        <f t="shared" si="90"/>
+        <v>171292.85790446674</v>
       </c>
       <c r="BP28" s="3">
-        <f t="shared" si="89"/>
-        <v>175987.56052972295</v>
+        <f t="shared" si="90"/>
+        <v>169579.92932542207</v>
       </c>
       <c r="BQ28" s="3">
-        <f t="shared" si="89"/>
-        <v>174227.68492442573</v>
+        <f t="shared" si="90"/>
+        <v>167884.13003216786</v>
       </c>
       <c r="BR28" s="3">
-        <f t="shared" si="89"/>
-        <v>172485.40807518148</v>
+        <f t="shared" si="90"/>
+        <v>166205.28873184617</v>
       </c>
       <c r="BS28" s="3">
-        <f t="shared" si="89"/>
-        <v>170760.55399442965</v>
+        <f t="shared" si="90"/>
+        <v>164543.23584452772</v>
       </c>
       <c r="BT28" s="3">
-        <f t="shared" si="89"/>
-        <v>169052.94845448536</v>
+        <f t="shared" si="90"/>
+        <v>162897.80348608244</v>
       </c>
       <c r="BU28" s="3">
-        <f t="shared" si="89"/>
-        <v>167362.41896994051</v>
+        <f t="shared" si="90"/>
+        <v>161268.82545122161</v>
       </c>
       <c r="BV28" s="3">
-        <f t="shared" si="89"/>
-        <v>165688.79478024109</v>
+        <f t="shared" si="90"/>
+        <v>159656.1371967094</v>
       </c>
       <c r="BW28" s="3">
-        <f t="shared" si="89"/>
-        <v>164031.90683243869</v>
+        <f t="shared" si="90"/>
+        <v>158059.57582474229</v>
       </c>
       <c r="BX28" s="3">
-        <f t="shared" si="89"/>
-        <v>162391.58776411429</v>
+        <f t="shared" si="90"/>
+        <v>156478.98006649487</v>
       </c>
       <c r="BY28" s="3">
-        <f t="shared" si="89"/>
-        <v>160767.67188647314</v>
+        <f t="shared" si="90"/>
+        <v>154914.19026582991</v>
       </c>
       <c r="BZ28" s="3">
-        <f t="shared" si="89"/>
-        <v>159159.9951676084</v>
+        <f t="shared" si="90"/>
+        <v>153365.04836317161</v>
       </c>
       <c r="CA28" s="3">
-        <f t="shared" si="89"/>
-        <v>157568.39521593231</v>
+        <f t="shared" si="90"/>
+        <v>151831.3978795399</v>
       </c>
       <c r="CB28" s="3">
-        <f t="shared" si="89"/>
-        <v>155992.71126377297</v>
+        <f t="shared" si="90"/>
+        <v>150313.0839007445</v>
       </c>
       <c r="CC28" s="3">
-        <f t="shared" si="89"/>
-        <v>154432.78415113525</v>
+        <f t="shared" si="90"/>
+        <v>148809.95306173706</v>
       </c>
       <c r="CD28" s="3">
-        <f t="shared" si="89"/>
-        <v>152888.4563096239</v>
+        <f t="shared" si="90"/>
+        <v>147321.85353111968</v>
       </c>
       <c r="CE28" s="3">
-        <f t="shared" si="89"/>
-        <v>151359.57174652765</v>
+        <f t="shared" si="90"/>
+        <v>145848.63499580848</v>
       </c>
       <c r="CF28" s="3">
-        <f t="shared" si="89"/>
-        <v>149845.97602906238</v>
+        <f t="shared" si="90"/>
+        <v>144390.14864585039</v>
       </c>
       <c r="CG28" s="3">
-        <f t="shared" si="89"/>
-        <v>148347.51626877175</v>
+        <f t="shared" si="90"/>
+        <v>142946.24715939187</v>
       </c>
       <c r="CH28" s="3">
-        <f t="shared" si="89"/>
-        <v>146864.04110608404</v>
+        <f t="shared" si="90"/>
+        <v>141516.78468779795</v>
       </c>
       <c r="CI28" s="3">
-        <f t="shared" si="89"/>
-        <v>145395.40069502321</v>
+        <f t="shared" si="90"/>
+        <v>140101.61684091997</v>
       </c>
       <c r="CJ28" s="3">
-        <f t="shared" si="89"/>
-        <v>143941.44668807299</v>
+        <f t="shared" si="90"/>
+        <v>138700.60067251077</v>
       </c>
       <c r="CK28" s="3">
-        <f t="shared" si="89"/>
-        <v>142502.03222119226</v>
+        <f t="shared" si="90"/>
+        <v>137313.59466578567</v>
       </c>
       <c r="CL28" s="3">
-        <f t="shared" si="89"/>
-        <v>141077.01189898033</v>
+        <f t="shared" si="90"/>
+        <v>135940.45871912781</v>
       </c>
       <c r="CM28" s="3">
-        <f t="shared" si="89"/>
-        <v>139666.24177999052</v>
+        <f t="shared" si="90"/>
+        <v>134581.05413193654</v>
       </c>
       <c r="CN28" s="3">
-        <f t="shared" si="89"/>
-        <v>138269.57936219062</v>
+        <f t="shared" si="90"/>
+        <v>133235.24359061717</v>
       </c>
       <c r="CO28" s="3">
-        <f t="shared" si="89"/>
-        <v>136886.88356856871</v>
+        <f t="shared" si="90"/>
+        <v>131902.89115471099</v>
       </c>
       <c r="CP28" s="3">
-        <f t="shared" si="89"/>
-        <v>135518.01473288302</v>
+        <f t="shared" si="90"/>
+        <v>130583.86224316388</v>
       </c>
       <c r="CQ28" s="3">
-        <f t="shared" si="89"/>
-        <v>134162.8345855542</v>
+        <f t="shared" si="90"/>
+        <v>129278.02362073225</v>
       </c>
       <c r="CR28" s="3">
-        <f t="shared" si="89"/>
-        <v>132821.20623969866</v>
+        <f t="shared" si="90"/>
+        <v>127985.24338452492</v>
       </c>
       <c r="CS28" s="3">
-        <f t="shared" si="89"/>
-        <v>131492.99417730168</v>
+        <f t="shared" si="90"/>
+        <v>126705.39095067966</v>
       </c>
       <c r="CT28" s="3">
-        <f t="shared" si="89"/>
-        <v>130178.06423552865</v>
+        <f t="shared" si="90"/>
+        <v>125438.33704117287</v>
       </c>
       <c r="CU28" s="3">
-        <f t="shared" si="89"/>
-        <v>128876.28359317337</v>
+        <f t="shared" si="90"/>
+        <v>124183.95367076114</v>
       </c>
       <c r="CV28" s="3">
-        <f t="shared" si="89"/>
-        <v>127587.52075724164</v>
+        <f t="shared" si="90"/>
+        <v>122942.11413405353</v>
       </c>
       <c r="CW28" s="3">
-        <f t="shared" si="89"/>
-        <v>126311.64554966922</v>
+        <f t="shared" si="90"/>
+        <v>121712.69299271298</v>
       </c>
       <c r="CX28" s="3">
-        <f t="shared" si="89"/>
-        <v>125048.52909417253</v>
+        <f t="shared" si="90"/>
+        <v>120495.56606278585</v>
       </c>
       <c r="CY28" s="3">
-        <f t="shared" si="89"/>
-        <v>123798.0438032308</v>
+        <f t="shared" si="90"/>
+        <v>119290.61040215798</v>
       </c>
       <c r="CZ28" s="3">
-        <f t="shared" si="89"/>
-        <v>122560.0633651985</v>
+        <f t="shared" si="90"/>
+        <v>118097.70429813641</v>
       </c>
       <c r="DA28" s="3">
-        <f t="shared" si="89"/>
-        <v>121334.4627315465</v>
+        <f t="shared" si="90"/>
+        <v>116916.72725515504</v>
       </c>
     </row>
     <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5036,42 +5133,42 @@
         <v>32</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="90">C28/C30</f>
+        <f t="shared" ref="C29" si="91">C28/C30</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="91">G28/G30</f>
+        <f t="shared" ref="G29" si="92">G28/G30</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29" si="92">H28/H30</f>
+        <f t="shared" ref="H29" si="93">H28/H30</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29" si="93">I28/I30</f>
+        <f t="shared" ref="I29" si="94">I28/I30</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29" si="94">J28/J30</f>
+        <f t="shared" ref="J29" si="95">J28/J30</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:N29" si="95">K28/K30</f>
+        <f t="shared" ref="K29:N29" si="96">K28/K30</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O29" s="14">
@@ -5079,48 +5176,48 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:Z29" si="96">P28/P30</f>
+        <f t="shared" ref="P29:Z29" si="97">P28/P30</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.0522901058160192</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.1737502924432659</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.4544302795154012</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.5508034026465027</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.6415648309792097</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" si="96"/>
-        <v>6.3909696873512143</v>
+        <f t="shared" si="97"/>
+        <v>1.8776384700841136</v>
       </c>
       <c r="X29" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="97"/>
+        <v>1.907681124303368</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="97"/>
+        <v>1.9335335172861547</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="97"/>
+        <v>2.3758905904512324</v>
       </c>
       <c r="AL29" s="17">
         <f>AL28/AL30</f>
@@ -5136,35 +5233,35 @@
       </c>
       <c r="AO29" s="17">
         <f>AO28/AO30</f>
-        <v>5.6080380594150139</v>
+        <v>5.4746763638215006</v>
       </c>
       <c r="AP29" s="17">
-        <f t="shared" ref="AP29:AV29" si="97">AP28/AP30</f>
-        <v>6.6491005248224839</v>
+        <f t="shared" ref="AP29:AV29" si="98">AP28/AP30</f>
+        <v>6.7463068600952063</v>
       </c>
       <c r="AQ29" s="17">
-        <f t="shared" si="97"/>
-        <v>7.778431207897734</v>
+        <f t="shared" si="98"/>
+        <v>7.807064460610901</v>
       </c>
       <c r="AR29" s="17">
-        <f t="shared" si="97"/>
-        <v>9.1393090518548288</v>
+        <f t="shared" si="98"/>
+        <v>9.073712662347166</v>
       </c>
       <c r="AS29" s="17">
-        <f t="shared" si="97"/>
-        <v>10.788794824274246</v>
+        <f t="shared" si="98"/>
+        <v>10.595337359653922</v>
       </c>
       <c r="AT29" s="17">
-        <f t="shared" si="97"/>
-        <v>12.402858238198393</v>
+        <f t="shared" si="98"/>
+        <v>12.101314723007823</v>
       </c>
       <c r="AU29" s="17">
-        <f t="shared" si="97"/>
-        <v>14.269843197907582</v>
+        <f t="shared" si="98"/>
+        <v>13.835093976750155</v>
       </c>
       <c r="AV29" s="17">
-        <f t="shared" si="97"/>
-        <v>16.432161214626063</v>
+        <f t="shared" si="98"/>
+        <v>15.833873309299035</v>
       </c>
     </row>
     <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5230,16 +5327,13 @@
         <v>12602</v>
       </c>
       <c r="X30" s="11">
-        <f>W30</f>
-        <v>12602</v>
+        <v>12381</v>
       </c>
       <c r="Y30" s="11">
-        <f>X30</f>
-        <v>12602</v>
+        <v>12322</v>
       </c>
       <c r="Z30" s="11">
-        <f>Y30</f>
-        <v>12602</v>
+        <v>12211</v>
       </c>
       <c r="AG30" s="3">
         <v>687.34799999999996</v>
@@ -5262,31 +5356,31 @@
         <v>13094.333333333334</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" ref="AP30:AV30" si="98">+AO30</f>
+        <f t="shared" ref="AP30:AV30" si="99">+AO30</f>
         <v>13094.333333333334</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AT30" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AU30" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13094.333333333334</v>
       </c>
     </row>
@@ -5303,19 +5397,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32:L32" si="99">K16/G16-1</f>
+        <f t="shared" ref="K32:L32" si="100">K16/G16-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="100">M16/I16-1</f>
+        <f t="shared" ref="M32" si="101">M16/I16-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="101">N16/J16-1</f>
+        <f t="shared" ref="N32" si="102">N16/J16-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O32" s="16">
@@ -5323,11 +5417,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:T32" si="102">P16/L16-1</f>
+        <f t="shared" ref="P32:T32" si="103">P16/L16-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R32" s="16">
@@ -5339,105 +5433,105 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" ref="U32:Z32" si="103">U16/Q16-1</f>
+        <f t="shared" ref="U32:Z32" si="104">U16/Q16-1</f>
         <v>0.11001273664100042</v>
       </c>
       <c r="V32" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.13494108983799702</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.15406880937710454</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="103"/>
-        <v>-1</v>
+        <f t="shared" si="104"/>
+        <v>0.13589083695244231</v>
       </c>
       <c r="Y32" s="16">
-        <f t="shared" si="103"/>
-        <v>-1</v>
+        <f t="shared" si="104"/>
+        <v>0.15092642092498654</v>
       </c>
       <c r="Z32" s="16">
-        <f t="shared" si="103"/>
-        <v>-1</v>
+        <f t="shared" si="104"/>
+        <v>0.11770362646275045</v>
       </c>
       <c r="AA32" s="16"/>
       <c r="AE32" s="18">
-        <f t="shared" ref="AE32:AN32" si="104">AE16/AD16-1</f>
+        <f t="shared" ref="AE32:AN32" si="105">AE16/AD16-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AF32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.18880023055170292</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.13617975485219924</v>
       </c>
       <c r="AH32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.20380322447292265</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.22801090038993266</v>
       </c>
       <c r="AJ32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="AM32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" ref="AO32:AV32" si="105">AO16/AN16-1</f>
-        <v>9.9438826740584574E-2</v>
+        <f t="shared" ref="AO32:AV32" si="106">AO16/AN16-1</f>
+        <v>8.5993296468624969E-2</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11590861782999839</v>
+        <f t="shared" si="106"/>
+        <v>0.13885036365648951</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11152619526934493</v>
+        <f t="shared" si="106"/>
+        <v>0.10497760193478123</v>
       </c>
       <c r="AR32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11781371393947904</v>
+        <f t="shared" si="106"/>
+        <v>0.11059331242760884</v>
       </c>
       <c r="AS32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.12472714817761998</v>
+        <f t="shared" si="106"/>
+        <v>0.11681242519816681</v>
       </c>
       <c r="AT32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.10893235849757321</v>
+        <f t="shared" si="106"/>
+        <v>0.10384741843712408</v>
       </c>
       <c r="AU32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11180845813012263</v>
+        <f t="shared" si="106"/>
+        <v>0.106567630077683</v>
       </c>
       <c r="AV32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11473876239429304</v>
+        <f t="shared" si="106"/>
+        <v>0.10935193367059504</v>
       </c>
       <c r="AX32" s="18" t="s">
         <v>72</v>
@@ -5511,19 +5605,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="106">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="107">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="107">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="108">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -5543,78 +5637,78 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="108">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="109">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>4.7654157143208309E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.11348289031083225</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.12712421368885551</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" ref="W34" si="109">+W14/S14-1</f>
+        <f t="shared" ref="W34" si="110">+W14/S14-1</f>
         <v>0.14363586808394668</v>
       </c>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AJ34" s="5">
-        <f t="shared" ref="AJ34:AN34" si="110">+AJ14/AI14-1</f>
+        <f t="shared" ref="AJ34:AN34" si="111">+AJ14/AI14-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AO34" s="5">
         <f>+AO14/AN14-1</f>
+        <v>7.7457679285934056E-2</v>
+      </c>
+      <c r="AP34" s="15">
+        <f t="shared" ref="AP34:AV34" si="112">+AP14/AO14-1</f>
+        <v>0.13169516605440124</v>
+      </c>
+      <c r="AQ34" s="15">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP34" s="15">
-        <f t="shared" ref="AP34:AV34" si="111">+AP14/AO14-1</f>
+      <c r="AR34" s="15">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ34" s="15">
-        <f t="shared" si="111"/>
+      <c r="AS34" s="15">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR34" s="15">
-        <f t="shared" si="111"/>
+      <c r="AT34" s="15">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AS34" s="15">
-        <f t="shared" si="111"/>
+      <c r="AU34" s="15">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AT34" s="15">
-        <f t="shared" si="111"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AU34" s="15">
-        <f t="shared" si="111"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="AV34" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX34" s="5" t="s">
@@ -5637,31 +5731,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="112">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="113">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="113">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="114">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -5669,42 +5763,42 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="114">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="115">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>4.4277929155313256E-2</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.12459340970159816</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.15534346351877426</v>
       </c>
       <c r="W35" s="15">
-        <f t="shared" ref="W35" si="115">+W13/S13-1</f>
+        <f t="shared" ref="W35" si="116">+W13/S13-1</f>
         <v>0.20872553414014638</v>
       </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AJ35" s="5">
-        <f t="shared" ref="AJ35:AM35" si="116">+AJ13/AI13-1</f>
+        <f t="shared" ref="AJ35:AM35" si="117">+AJ13/AI13-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AK35" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AL35" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AN35" s="5">
@@ -5713,34 +5807,34 @@
       </c>
       <c r="AO35" s="5">
         <f>+AO13/AN13-1</f>
+        <v>7.7522825975447018E-2</v>
+      </c>
+      <c r="AP35" s="15">
+        <f t="shared" ref="AP35:AV35" si="118">+AP13/AO13-1</f>
+        <v>0.14715963186290071</v>
+      </c>
+      <c r="AQ35" s="15">
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AP35" s="15">
-        <f t="shared" ref="AP35:AV35" si="117">+AP13/AO13-1</f>
+      <c r="AR35" s="15">
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AQ35" s="15">
-        <f t="shared" si="117"/>
+      <c r="AS35" s="15">
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AR35" s="15">
-        <f t="shared" si="117"/>
+      <c r="AT35" s="15">
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AS35" s="15">
-        <f t="shared" si="117"/>
+      <c r="AU35" s="15">
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AT35" s="15">
-        <f t="shared" si="117"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AU35" s="15">
-        <f t="shared" si="117"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="AV35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AX35" s="5" t="s">
@@ -5748,7 +5842,7 @@
       </c>
       <c r="AY35" s="3">
         <f>NPV(AY33,AO28:DA28)+Main!L5-Main!L6</f>
-        <v>2142049.8680530442</v>
+        <v>2083192.3954451547</v>
       </c>
     </row>
     <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5764,19 +5858,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="118">K15/G15-1</f>
+        <f t="shared" ref="K36" si="119">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="119">L15/H15-1</f>
+        <f t="shared" ref="L36" si="120">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="120">M15/I15-1</f>
+        <f t="shared" ref="M36" si="121">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="121">N15/J15-1</f>
+        <f t="shared" ref="N36" si="122">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -5784,11 +5878,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="122">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="123">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -5796,86 +5890,86 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="123">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="124">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>5.4804984007256419E-2</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.1076787721785033</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.12490049824582083</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" ref="W36" si="124">W15/S15-1</f>
+        <f t="shared" ref="W36" si="125">W15/S15-1</f>
         <v>0.13616629815529113</v>
       </c>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AJ36" s="5">
-        <f t="shared" ref="AJ36:AN36" si="125">+AJ15/AI15-1</f>
+        <f t="shared" ref="AJ36:AN36" si="126">+AJ15/AI15-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AK36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AL36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AM36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AO36" s="5">
         <f>+AO15/AN15-1</f>
-        <v>7.7159919219967898E-2</v>
+        <v>7.5001577735003711E-2</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" ref="AP36:AV36" si="126">+AP15/AO15-1</f>
-        <v>7.8052815516631568E-2</v>
+        <f t="shared" ref="AP36:AV36" si="127">+AP15/AO15-1</f>
+        <v>0.11883262457667221</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="126"/>
-        <v>7.8926787613141869E-2</v>
+        <f t="shared" si="127"/>
+        <v>7.7843177122618457E-2</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="126"/>
-        <v>7.9780908994353084E-2</v>
+        <f t="shared" si="127"/>
+        <v>7.8716690877616013E-2</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.0614365686686451E-2</v>
+        <f t="shared" si="127"/>
+        <v>7.957082862403686E-2</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.1426456360157662E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.0404757613526057E-2</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.2216591293572172E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.1217755543749437E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.2984290295815111E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.2009209864399413E-2</v>
       </c>
       <c r="AX36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AY36" s="1">
+      <c r="AY36" s="17">
         <f>+AY35/Main!L3</f>
-        <v>168.71848362106525</v>
+        <v>159.09113831264068</v>
       </c>
     </row>
     <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5891,19 +5985,19 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f t="shared" ref="K37" si="127">K10/G10-1</f>
+        <f t="shared" ref="K37" si="128">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="128">L10/H10-1</f>
+        <f t="shared" ref="L37" si="129">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37" si="129">M10/I10-1</f>
+        <f t="shared" ref="M37" si="130">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37" si="130">N10/J10-1</f>
+        <f t="shared" ref="N37" si="131">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O37" s="15">
@@ -5911,11 +6005,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:Q37" si="131">P10/L10-1</f>
+        <f t="shared" ref="P37:Q37" si="132">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R37" s="15">
@@ -5923,79 +6017,86 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:V37" si="132">S10/O10-1</f>
+        <f t="shared" ref="S37:V37" si="133">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.2796367112810707</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.22466511357018049</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.25659603554340404</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37" si="133">W10/S10-1</f>
+        <f t="shared" ref="W37" si="134">W10/S10-1</f>
         <v>0.28441105446740012</v>
       </c>
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AJ37" s="5">
-        <f t="shared" ref="AJ37:AN37" si="134">+AJ10/AI10-1</f>
+        <f t="shared" ref="AJ37:AN37" si="135">+AJ10/AI10-1</f>
         <v>0.43934911242603558</v>
       </c>
       <c r="AK37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AM37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AO37" s="5">
         <f>+AO10/AN10-1</f>
-        <v>0.39999999999999991</v>
+        <v>0.25905631659056327</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" ref="AP37:AV37" si="135">+AP10/AO10-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="AP37:AV37" si="136">+AP10/AO10-1</f>
+        <v>0.30648573500967125</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AU37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AV37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
+      </c>
+      <c r="AX37" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY37" s="18">
+        <f>(AY36-Main!L2)/Main!L2</f>
+        <v>-0.1416254542320024</v>
       </c>
     </row>
     <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6007,19 +6108,19 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <f t="shared" ref="G38:H38" si="136">G19/G16</f>
+        <f t="shared" ref="G38:H38" si="137">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" ref="I38" si="137">I19/I16</f>
+        <f t="shared" ref="I38" si="138">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" ref="J38" si="138">J19/J16</f>
+        <f t="shared" ref="J38" si="139">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K38" s="15">
@@ -6027,27 +6128,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" ref="L38:O38" si="139">L19/L16</f>
+        <f t="shared" ref="L38:O38" si="140">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="O38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="P38" s="15">
-        <f t="shared" ref="P38:Q38" si="140">P19/P16</f>
+        <f t="shared" ref="P38:Q38" si="141">P19/P16</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R38" s="15">
@@ -6055,54 +6156,54 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" ref="S38:V38" si="141">S19/S16</f>
+        <f t="shared" ref="S38:V38" si="142">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" ref="W38" si="142">W19/W16</f>
-        <v>1</v>
+        <f t="shared" ref="W38" si="143">W19/W16</f>
+        <v>0.58142018152696207</v>
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
       <c r="AF38" s="5">
-        <f t="shared" ref="AF38" si="143">AF19/AF16</f>
+        <f t="shared" ref="AF38" si="144">AF19/AF16</f>
         <v>0.6107483219951213</v>
       </c>
       <c r="AG38" s="5">
-        <f t="shared" ref="AG38" si="144">AG19/AG16</f>
+        <f t="shared" ref="AG38" si="145">AG19/AG16</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="AH38" s="5">
-        <f t="shared" ref="AH38:AI38" si="145">AH19/AH16</f>
+        <f t="shared" ref="AH38:AI38" si="146">AH19/AH16</f>
         <v>0.61075416518964909</v>
       </c>
       <c r="AI38" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.58880519597672631</v>
       </c>
       <c r="AJ38" s="5">
-        <f t="shared" ref="AJ38:AL38" si="146">AJ19/AJ16</f>
+        <f t="shared" ref="AJ38:AL38" si="147">AJ19/AJ16</f>
         <v>0.5647607422945643</v>
       </c>
       <c r="AK38" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AL38" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AM38" s="5">
@@ -6114,35 +6215,35 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AO38" s="5">
-        <f t="shared" ref="AO38" si="147">AO19/AO16</f>
+        <f t="shared" ref="AO38" si="148">AO19/AO16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AP38" s="15">
-        <f t="shared" ref="AP38:AV38" si="148">AP19/AP16</f>
+        <f t="shared" ref="AP38:AV38" si="149">AP19/AP16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AQ38" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AR38" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AS38" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AT38" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AU38" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AV38" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -6155,7 +6256,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f t="shared" ref="G39" si="149">+G27/G26</f>
+        <f t="shared" ref="G39" si="150">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H39" s="15">
@@ -6163,39 +6264,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:Q39" si="150">+I27/I26</f>
+        <f t="shared" ref="I39:Q39" si="151">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.16</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R39" s="15">
@@ -6203,58 +6304,58 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="151">+S27/S26</f>
+        <f t="shared" ref="S39:V39" si="152">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" ref="W39" si="152">+W27/W26</f>
-        <v>0</v>
+        <f t="shared" ref="W39" si="153">+W27/W26</f>
+        <v>0.16432986049796927</v>
       </c>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AF39" s="15">
-        <f t="shared" ref="AF39" si="153">+AF27/AF26</f>
+        <f t="shared" ref="AF39" si="154">+AF27/AF26</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AG39" s="15">
-        <f t="shared" ref="AG39" si="154">+AG27/AG26</f>
+        <f t="shared" ref="AG39" si="155">+AG27/AG26</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AH39" s="15">
-        <f t="shared" ref="AH39:AI39" si="155">+AH27/AH26</f>
+        <f t="shared" ref="AH39:AI39" si="156">+AH27/AH26</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AI39" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.48551572053860803</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AL39" si="156">+AJ27/AJ26</f>
+        <f t="shared" ref="AJ39:AL39" si="157">+AJ27/AJ26</f>
         <v>0.10446678671468587</v>
       </c>
       <c r="AK39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AL39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AM39" s="15">
-        <f t="shared" ref="AM39:AO39" si="157">+AM27/AM26</f>
+        <f t="shared" ref="AM39:AO39" si="158">+AM27/AM26</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AN39" s="15">
@@ -6262,35 +6363,35 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AO39" s="15">
-        <f t="shared" si="157"/>
-        <v>0.18</v>
-      </c>
-      <c r="AP39" s="15">
-        <f t="shared" ref="AP39:AV39" si="158">+AP27/AP26</f>
-        <v>0.18</v>
-      </c>
-      <c r="AQ39" s="15">
         <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
+      <c r="AP39" s="15">
+        <f t="shared" ref="AP39:AV39" si="159">+AP27/AP26</f>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="AQ39" s="15">
+        <f t="shared" si="159"/>
+        <v>0.18</v>
+      </c>
       <c r="AR39" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
       <c r="AS39" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
       <c r="AT39" s="15">
-        <f t="shared" si="158"/>
-        <v>0.18000000000000002</v>
+        <f t="shared" si="159"/>
+        <v>0.18</v>
       </c>
       <c r="AU39" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
       <c r="AV39" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6303,15 +6404,15 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <f t="shared" ref="G40:H40" si="159">G14/G16</f>
+        <f t="shared" ref="G40:H40" si="160">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40" si="160">I14/I16</f>
+        <f t="shared" ref="I40" si="161">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J40" s="15">
@@ -6319,31 +6420,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:O40" si="161">K14/K16</f>
+        <f t="shared" ref="K40:O40" si="162">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:Q40" si="162">P14/P16</f>
+        <f t="shared" ref="P40:Q40" si="163">P14/P16</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R40" s="15">
@@ -6351,71 +6452,71 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:V40" si="163">S14/S16</f>
+        <f t="shared" ref="S40:V40" si="164">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.57139027397994746</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.574054998500515</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.55636658556366581</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" ref="W40" si="164">W14/W16</f>
+        <f t="shared" ref="W40" si="165">W14/W16</f>
         <v>0.57308881411490087</v>
       </c>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AL40" s="15">
-        <f t="shared" ref="AL40:AO40" si="165">AL14/AL16</f>
+        <f t="shared" ref="AL40:AO40" si="166">AL14/AL16</f>
         <v>0.57011839344316184</v>
       </c>
       <c r="AM40" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.57814289096674776</v>
       </c>
       <c r="AN40" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.57436111386103605</v>
       </c>
       <c r="AO40" s="15">
-        <f t="shared" si="165"/>
-        <v>0.57465427805581204</v>
+        <f t="shared" si="166"/>
+        <v>0.56984678894900997</v>
       </c>
       <c r="AP40" s="15">
-        <f t="shared" ref="AP40:AV40" si="166">AP14/AP16</f>
-        <v>0.56646189101990851</v>
+        <f t="shared" ref="AP40:AV40" si="167">AP14/AP16</f>
+        <v>0.56626654126418285</v>
       </c>
       <c r="AQ40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.56058785008742684</v>
+        <f t="shared" si="167"/>
+        <v>0.56371567559372671</v>
       </c>
       <c r="AR40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.55165420445857594</v>
+        <f t="shared" si="167"/>
+        <v>0.55833871518429312</v>
       </c>
       <c r="AS40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.53952607606889824</v>
+        <f t="shared" si="167"/>
+        <v>0.54993351868711859</v>
       </c>
       <c r="AT40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.53518023811646842</v>
+        <f t="shared" si="167"/>
+        <v>0.54801674620239882</v>
       </c>
       <c r="AU40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.52949611745013003</v>
+        <f t="shared" si="167"/>
+        <v>0.54476419193675474</v>
       </c>
       <c r="AV40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.52249526870684604</v>
+        <f t="shared" si="167"/>
+        <v>0.54017178222935835</v>
       </c>
     </row>
     <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6427,47 +6528,47 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:J41" si="167">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G41:J41" si="168">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.7798783194506097</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.80339159248911707</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.81196175612499566</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" ref="K41:Q41" si="168">(K14+K13+K12)/K16</f>
+        <f t="shared" ref="K41:Q41" si="169">(K14+K13+K12)/K16</f>
         <v>0.80782442058068482</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.81519069166127989</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.81590343683774069</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R41" s="15">
@@ -6475,23 +6576,23 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="169">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S41:V41" si="170">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.77773721200109525</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.75908932916232186</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" ref="W41" si="170">(W14+W13+W12)/W16</f>
+        <f t="shared" ref="W41" si="171">(W14+W13+W12)/W16</f>
         <v>0.76557940873365704</v>
       </c>
       <c r="X41" s="15"/>
@@ -6518,43 +6619,43 @@
         <v>124580</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="171">+N44-N62</f>
+        <f t="shared" ref="N43:O43" si="172">+N44-N62</f>
         <v>154381</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>149723</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" ref="P43:W43" si="172">+P44-P62</f>
+        <f t="shared" ref="P43:W43" si="173">+P44-P62</f>
         <v>140928</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>132025</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>129553</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>132618</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>135851</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>137061</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>128671</v>
       </c>
       <c r="W43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>142084</v>
       </c>
       <c r="X43" s="11"/>
@@ -6569,35 +6670,35 @@
       </c>
       <c r="AO43" s="3">
         <f>+AN43+AO28</f>
-        <v>202986.519696</v>
+        <v>201240.2372</v>
       </c>
       <c r="AP43" s="3">
-        <f t="shared" ref="AP43:AV43" si="173">+AO43+AP28</f>
-        <v>290052.05833486724</v>
+        <f t="shared" ref="AP43:AV43" si="174">+AO43+AP28</f>
+        <v>289578.62799504003</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" si="173"/>
-        <v>391905.42938148277</v>
+        <f t="shared" si="174"/>
+        <v>391806.93239709939</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" si="173"/>
-        <v>511578.58854282054</v>
+        <f t="shared" si="174"/>
+        <v>510621.15056876064</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" si="173"/>
-        <v>652850.66423680889</v>
+        <f t="shared" si="174"/>
+        <v>649360.02973518893</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" si="173"/>
-        <v>815257.82429385802</v>
+        <f t="shared" si="174"/>
+        <v>807818.67848982767</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" si="173"/>
-        <v>1002111.9077416592</v>
+        <f t="shared" si="174"/>
+        <v>988980.0107193864</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" si="173"/>
-        <v>1217280.1040730444</v>
+        <f t="shared" si="174"/>
+        <v>1196314.0257891177</v>
       </c>
     </row>
     <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7089,43 +7190,43 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:W54" si="174">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:W54" si="175">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>357096</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>355185</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>358255</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>365264</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>369491</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>383044</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>396711</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>402392</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>407350</v>
       </c>
       <c r="X54" s="11"/>
@@ -7567,39 +7668,39 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:V66" si="175">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:V66" si="176">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>357096</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>355185</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>358255</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>365264</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>369491</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>383044</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>396711</v>
       </c>
       <c r="V66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>402392</v>
       </c>
       <c r="W66" s="11"/>
@@ -7623,63 +7724,63 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:V68" si="176">+H28</f>
+        <f t="shared" ref="H68:V68" si="177">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>11247</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>15227</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>17930</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>18165</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>18936</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>20642</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>16436</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>16002</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>13910</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>13624</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>15051</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>18368</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>19689</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>20687</v>
       </c>
       <c r="W68" s="11"/>
@@ -8141,39 +8242,39 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:V77" si="177">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:V77" si="178">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>25106</v>
       </c>
       <c r="P77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>19422</v>
       </c>
       <c r="Q77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>23353</v>
       </c>
       <c r="R77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>23614</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>23509</v>
       </c>
       <c r="T77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>28666</v>
       </c>
       <c r="U77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>30656</v>
       </c>
       <c r="V77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>18915</v>
       </c>
       <c r="W77" s="11"/>
@@ -8908,11 +9009,11 @@
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="178">M77-M79</f>
+        <f t="shared" ref="M93:N93" si="179">M77-M79</f>
         <v>32358</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>6383</v>
       </c>
       <c r="O93" s="11">
@@ -8920,19 +9021,19 @@
         <v>15320</v>
       </c>
       <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="179">P77+P79</f>
+        <f t="shared" ref="P93:S93" si="180">P77+P79</f>
         <v>12594</v>
       </c>
       <c r="Q93" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>16077</v>
       </c>
       <c r="R93" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>16019</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>17220</v>
       </c>
       <c r="T93" s="11">
@@ -9019,39 +9120,39 @@
         <v>81</v>
       </c>
       <c r="O96" s="15">
-        <f t="shared" ref="O96:W96" si="180">+O95/K95-1</f>
+        <f t="shared" ref="O96:W96" si="181">+O95/K95-1</f>
         <v>0.17079895710561099</v>
       </c>
       <c r="P96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.20796079302493475</v>
       </c>
       <c r="Q96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.24496094062441687</v>
       </c>
       <c r="R96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.21555271565495215</v>
       </c>
       <c r="S96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.16353885763791443</v>
       </c>
       <c r="T96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>4.4732033054811771E-2</v>
       </c>
       <c r="U96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-2.3546544311726647E-2</v>
       </c>
       <c r="V96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-4.0644679710251541E-2</v>
       </c>
       <c r="W96" s="15">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-5.1470549679882072E-2</v>
       </c>
     </row>
@@ -9064,55 +9165,55 @@
         <v>334.49548143813797</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" ref="K97:W97" si="181">+K16/K95*1000</f>
+        <f t="shared" ref="K97:W97" si="182">+K16/K95*1000</f>
         <v>395.11411121825779</v>
       </c>
       <c r="L97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>429.55517298828232</v>
       </c>
       <c r="M97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>434.03897939051376</v>
       </c>
       <c r="N97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>481.30990415335464</v>
       </c>
       <c r="O97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>414.93905043134475</v>
       </c>
       <c r="P97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>400.45628512648409</v>
       </c>
       <c r="Q97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>369.91310586307884</v>
       </c>
       <c r="R97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>399.76029521536634</v>
       </c>
       <c r="S97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>365.93064899245451</v>
       </c>
       <c r="T97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>410.36755079813861</v>
       </c>
       <c r="U97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>420.50981187733373</v>
       </c>
       <c r="V97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>472.92632409507837</v>
       </c>
       <c r="W97" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>445.22513060062471</v>
       </c>
     </row>
